--- a/pjrank1.xlsx
+++ b/pjrank1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/vivek_kishore_accenture_com/Documents/Desktop/GenAI - ML/Gen AI/proj_rank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/vivek_kishore_accenture_com/Documents/Projects_task/raker3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_72C94C77996FB20E62355476585DCE3A8756FC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C84EAE-017E-4116-9307-69F6A71B7A98}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_72C94C77996FB20E62355476585DCE3A8756FC6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3BBA148-41DF-4C5F-B91C-484F196327B2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1550,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>39</v>
